--- a/Turma Maio 2017/Aula 2/Aula Concatenar.xlsx
+++ b/Turma Maio 2017/Aula 2/Aula Concatenar.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -222,13 +222,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,8 +280,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6253368" y="0"/>
-          <a:ext cx="1681371" cy="361629"/>
+          <a:off x="6255279" y="0"/>
+          <a:ext cx="1686150" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,62 +881,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10" t="str">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="8" t="str">
         <f>CONCATENATE("Nome: ",B9,"|","Time: ",$B$19,"|","Idade: ",$D$18)</f>
         <v>Nome: Márcio|Time: São Paulo|Idade: 25</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -963,9 +963,23 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="F9" s="5" t="str">
+        <f>CONCATENATE(B9," ",D9)</f>
+        <v>Márcio Almeida</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>B9&amp;" - "&amp;B17</f>
+        <v>Márcio - Corinthians</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>CONCATENATE(
+"Márcio",
+" ",
+B17,
+" ",
+D17)</f>
+        <v>Márcio Corinthians 20</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -974,8 +988,14 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f t="shared" ref="F10:F14" si="0">CONCATENATE(B10," ",D10)</f>
+        <v>Jorge Silva</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" ref="H10:H12" si="1">B10&amp;" - "&amp;B18</f>
+        <v>Jorge - Santos</v>
+      </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -985,8 +1005,14 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ana Santos</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Ana - São Paulo</v>
+      </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -996,8 +1022,14 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Maria Camargo</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Maria - Palmeiras</v>
+      </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,7 +1039,10 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedro Viera</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -1018,7 +1053,10 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Marília Prado</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="J14" s="5"/>
     </row>

--- a/Turma Maio 2017/Aula 2/Aula Concatenar.xlsx
+++ b/Turma Maio 2017/Aula 2/Aula Concatenar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,16 +968,11 @@
         <v>Márcio Almeida</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>B9&amp;" - "&amp;B17</f>
-        <v>Márcio - Corinthians</v>
+        <f>F9&amp;"-"&amp;$B$17</f>
+        <v>Márcio Almeida-Corinthians</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f>CONCATENATE(
-"Márcio",
-" ",
-B17,
-" ",
-D17)</f>
+        <f>CONCATENATE(B9," ",B17," ",D17)</f>
         <v>Márcio Corinthians 20</v>
       </c>
     </row>
@@ -989,14 +984,17 @@
         <v>14</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f t="shared" ref="F10:F14" si="0">CONCATENATE(B10," ",D10)</f>
+        <f>B10&amp;" "&amp;D10</f>
         <v>Jorge Silva</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f t="shared" ref="H10:H12" si="1">B10&amp;" - "&amp;B18</f>
-        <v>Jorge - Santos</v>
-      </c>
-      <c r="J10" s="5"/>
+        <f t="shared" ref="H10:H14" si="0">F10&amp;"-"&amp;$B$17</f>
+        <v>Jorge Silva-Corinthians</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" ref="J10:J14" si="1">CONCATENATE(B10," ",B18," ",D18)</f>
+        <v>Jorge Santos 25</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1006,14 +1004,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="str">
+        <f>CONCATENATE(B11," ",D11)</f>
+        <v>Ana Santos</v>
+      </c>
+      <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Ana Santos</v>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>Ana Santos-Corinthians</v>
+      </c>
+      <c r="J11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Ana - São Paulo</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>Ana São Paulo 30</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1023,14 +1024,17 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="str">
+        <f>B12&amp;" "&amp;D12</f>
+        <v>Maria Camargo</v>
+      </c>
+      <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Maria Camargo</v>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>Maria Camargo-Corinthians</v>
+      </c>
+      <c r="J12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Maria - Palmeiras</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v xml:space="preserve">Maria Palmeiras </v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1040,11 +1044,17 @@
         <v>16</v>
       </c>
       <c r="F13" s="5" t="str">
+        <f t="shared" ref="F13:F14" si="2">B13&amp;" "&amp;D13</f>
+        <v>Pedro Viera</v>
+      </c>
+      <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Pedro Viera</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
+        <v>Pedro Viera-Corinthians</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Pedro  </v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1054,11 +1064,17 @@
         <v>19</v>
       </c>
       <c r="F14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Marília Prado</v>
+      </c>
+      <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Marília Prado</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="J14" s="5"/>
+        <v>Marília Prado-Corinthians</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Marília  </v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
